--- a/Supplementary Files/Supplementary_File_S3.xlsx
+++ b/Supplementary Files/Supplementary_File_S3.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Compressed Size" sheetId="10" r:id="rId1"/>
+    <sheet name="C.Size" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -67,9 +67,6 @@
     <t>FQZComp: Level is shown in {}</t>
   </si>
   <si>
-    <t>The C.Size (B). C.Time (s), and Avg. C. Ratio of the compressed file on two highly repetitive RNA sequence obtained by GraSS and other benchmark methods</t>
-  </si>
-  <si>
     <t>LFQC</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>The C.Size (B) of the compressed file on two highly repetitive RNA sequence obtained by GraSS and other benchmark methods</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1059,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>7</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="24">
         <v>610296406</v>
@@ -1111,13 +1111,13 @@
         <v>97704679</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="24">
         <v>23071990</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>1108994702</v>
@@ -1140,13 +1140,13 @@
         <v>206416639</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="3">
         <v>71249510</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
